--- a/ClosedXML_Tests/Resource/Misc/LoadPivotTables.xlsx
+++ b/ClosedXML_Tests/Resource/Misc/LoadPivotTables.xlsx
@@ -1,29 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ClosedXML\ClosedXML_Tests\Resource\Misc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385"/>
   </bookViews>
   <sheets>
-    <sheet name="PivotTable1" sheetId="3" r:id="rId1"/>
-    <sheet name="PastrySalesData" sheetId="2" r:id="rId2"/>
+    <sheet name="OrderedPivotTable" sheetId="4" r:id="rId1"/>
+    <sheet name="PivotTable1" sheetId="3" r:id="rId2"/>
+    <sheet name="PastrySalesData" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -61,23 +57,23 @@
     <t>Scone</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Column Labels</t>
-  </si>
-  <si>
     <t>Sum of NumberOfOrders</t>
+  </si>
+  <si>
+    <t>Названия столбцов</t>
+  </si>
+  <si>
+    <t>Названия строк</t>
+  </si>
+  <si>
+    <t>Общий итог</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -113,7 +109,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -129,7 +125,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Francois Botha" refreshedDate="42716.496844560184" refreshedVersion="5" recordCount="15">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy=" " refreshedDate="43069.777585185184" refreshedVersion="3" recordCount="15">
   <cacheSource type="worksheet">
     <worksheetSource name="'PastrySalesData'!A1:D16"/>
   </cacheSource>
@@ -261,7 +257,79 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" missingCaption="" updatedVersion="5" showItems="0" showMemberPropertyTips="0" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="OrderedPivotTable" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" updatedVersion="3" showItems="0" showMemberPropertyTips="0" indent="0" multipleFieldFilters="0">
+  <location ref="A1:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField name="Name" axis="axisRow" showAll="0" sortType="ascending">
+      <items count="6">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="NumberOfOrders" dataField="1" showAll="0"/>
+    <pivotField name="Quality" showAll="0"/>
+    <pivotField name="Month" axis="axisCol" showAll="0" sortType="descending">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of NumberOfOrders" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="0"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" missingCaption="" updatedVersion="3" showItems="0" showMemberPropertyTips="0" indent="0" multipleFieldFilters="0">
   <location ref="A1:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField name="Name" axis="axisRow" showAll="0">
@@ -629,13 +697,157 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>184</v>
+      </c>
+      <c r="C3">
+        <v>124</v>
+      </c>
+      <c r="D3">
+        <v>134</v>
+      </c>
+      <c r="E3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>250</v>
+      </c>
+      <c r="C4">
+        <v>134</v>
+      </c>
+      <c r="D4">
+        <v>150</v>
+      </c>
+      <c r="E4">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>190</v>
+      </c>
+      <c r="C5">
+        <v>221</v>
+      </c>
+      <c r="D5">
+        <v>394</v>
+      </c>
+      <c r="E5">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>225</v>
+      </c>
+      <c r="C6">
+        <v>210</v>
+      </c>
+      <c r="D6">
+        <v>250</v>
+      </c>
+      <c r="E6">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>122</v>
+      </c>
+      <c r="C7">
+        <v>243</v>
+      </c>
+      <c r="D7">
+        <v>135</v>
+      </c>
+      <c r="E7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>971</v>
+      </c>
+      <c r="C8">
+        <v>932</v>
+      </c>
+      <c r="D8">
+        <v>1063</v>
+      </c>
+      <c r="E8">
+        <v>2966</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -644,17 +856,17 @@
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -666,10 +878,10 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -686,7 +898,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -703,7 +915,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -720,7 +932,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -737,7 +949,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -754,9 +966,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>1063</v>
@@ -776,8 +988,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -785,7 +997,7 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
@@ -793,7 +1005,7 @@
     <col min="4" max="4" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -807,7 +1019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -821,7 +1033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -835,7 +1047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -849,7 +1061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -863,7 +1075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -877,7 +1089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -891,7 +1103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -905,7 +1117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -919,7 +1131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -933,7 +1145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -947,7 +1159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -961,7 +1173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -975,7 +1187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -989,7 +1201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1003,7 +1215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>11</v>
       </c>

--- a/ClosedXML_Tests/Resource/Misc/LoadPivotTables.xlsx
+++ b/ClosedXML_Tests/Resource/Misc/LoadPivotTables.xlsx
@@ -7,19 +7,20 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385"/>
   </bookViews>
   <sheets>
-    <sheet name="PivotTableSubtotals" sheetId="4" r:id="rId1"/>
-    <sheet name="PivotTable1" sheetId="3" r:id="rId2"/>
-    <sheet name="PastrySalesData" sheetId="2" r:id="rId3"/>
+    <sheet name="OrderedPivotTable" sheetId="5" r:id="rId1"/>
+    <sheet name="PivotTableSubtotals" sheetId="4" r:id="rId2"/>
+    <sheet name="PivotTable1" sheetId="3" r:id="rId3"/>
+    <sheet name="PastrySalesData" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -303,7 +304,79 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTableSubtotals" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" updatedVersion="3" showItems="0" showMemberPropertyTips="0" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="OrderedPivotTable" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" updatedVersion="3" showItems="0" showMemberPropertyTips="0" indent="0" multipleFieldFilters="0">
+  <location ref="A1:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
+    <pivotField name="Name" axis="axisRow" showAll="0" sortType="ascending">
+      <items count="6">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="NumberOfOrders" dataField="1" showAll="0"/>
+    <pivotField name="Quality" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0" includeNewItemsInFilter="1" sortType="descending" defaultSubtotal="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of NumberOfOrders" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="0"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTableSubtotals" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" updatedVersion="3" showItems="0" showMemberPropertyTips="0" indent="0" multipleFieldFilters="0">
   <location ref="A1:E16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1" sumSubtotal="1" countASubtotal="1" avgSubtotal="1">
@@ -407,8 +480,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" missingCaption="" updatedVersion="3" showItems="0" showMemberPropertyTips="0" indent="0" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" missingCaption="" updatedVersion="3" showItems="0" showMemberPropertyTips="0" indent="0" multipleFieldFilters="0">
   <location ref="A1:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
@@ -780,9 +853,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>184</v>
+      </c>
+      <c r="C3">
+        <v>124</v>
+      </c>
+      <c r="D3">
+        <v>134</v>
+      </c>
+      <c r="E3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>250</v>
+      </c>
+      <c r="C4">
+        <v>134</v>
+      </c>
+      <c r="D4">
+        <v>150</v>
+      </c>
+      <c r="E4">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>190</v>
+      </c>
+      <c r="C5">
+        <v>221</v>
+      </c>
+      <c r="D5">
+        <v>394</v>
+      </c>
+      <c r="E5">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>225</v>
+      </c>
+      <c r="C6">
+        <v>210</v>
+      </c>
+      <c r="D6">
+        <v>250</v>
+      </c>
+      <c r="E6">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>122</v>
+      </c>
+      <c r="C7">
+        <v>243</v>
+      </c>
+      <c r="D7">
+        <v>135</v>
+      </c>
+      <c r="E7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>971</v>
+      </c>
+      <c r="C8">
+        <v>932</v>
+      </c>
+      <c r="D8">
+        <v>1063</v>
+      </c>
+      <c r="E8">
+        <v>2966</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1032,7 +1247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E8"/>
@@ -1182,7 +1397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E16"/>
